--- a/Code/Results/Cases/Case_0_147/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_147/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1672524153738095</v>
+        <v>0.04837263193803665</v>
       </c>
       <c r="D2">
-        <v>0.08152441831821022</v>
+        <v>0.08076544123147755</v>
       </c>
       <c r="E2">
-        <v>0.0691017362437556</v>
+        <v>0.1133092308110797</v>
       </c>
       <c r="F2">
-        <v>7.192480047365024</v>
+        <v>3.954288008995718</v>
       </c>
       <c r="G2">
-        <v>7.797507936233956</v>
+        <v>3.517610816729587</v>
       </c>
       <c r="H2">
-        <v>3.820403506123398</v>
+        <v>2.358650277960692</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3210196426190493</v>
+        <v>0.2323591097577946</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1412772116696743</v>
+        <v>0.04291586150974069</v>
       </c>
       <c r="D3">
-        <v>0.07242619575507803</v>
+        <v>0.07849806491754663</v>
       </c>
       <c r="E3">
-        <v>0.06278670329009728</v>
+        <v>0.1129899566129957</v>
       </c>
       <c r="F3">
-        <v>6.143968498582268</v>
+        <v>3.771370646392</v>
       </c>
       <c r="G3">
-        <v>6.626436083855936</v>
+        <v>3.301587764275325</v>
       </c>
       <c r="H3">
-        <v>3.274505322140897</v>
+        <v>2.26737350247339</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2766782509885957</v>
+        <v>0.2254799030836381</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1260867643871109</v>
+        <v>0.03959561195027561</v>
       </c>
       <c r="D4">
-        <v>0.06711252944155888</v>
+        <v>0.0770883509388085</v>
       </c>
       <c r="E4">
-        <v>0.05917803033471714</v>
+        <v>0.1128551022633211</v>
       </c>
       <c r="F4">
-        <v>5.534708767582686</v>
+        <v>3.66221381334239</v>
       </c>
       <c r="G4">
-        <v>5.945038247276443</v>
+        <v>3.171817906806723</v>
       </c>
       <c r="H4">
-        <v>2.957733169444452</v>
+        <v>2.213175233925881</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2509954838819937</v>
+        <v>0.2214329583296575</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1200495475373629</v>
+        <v>0.03824977303878541</v>
       </c>
       <c r="D5">
-        <v>0.06500014326901038</v>
+        <v>0.07650930721145244</v>
       </c>
       <c r="E5">
-        <v>0.05776442283881522</v>
+        <v>0.1128154488327269</v>
       </c>
       <c r="F5">
-        <v>5.29348442040569</v>
+        <v>3.618508684877384</v>
       </c>
       <c r="G5">
-        <v>5.675021476819666</v>
+        <v>3.119638749499074</v>
       </c>
       <c r="H5">
-        <v>2.832414920184874</v>
+        <v>2.191544775453224</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2408467280614133</v>
+        <v>0.2198275908243659</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1190553522366429</v>
+        <v>0.0380267198869717</v>
       </c>
       <c r="D6">
-        <v>0.0646521893699159</v>
+        <v>0.07641287644713657</v>
       </c>
       <c r="E6">
-        <v>0.05753286273485969</v>
+        <v>0.1128097861513808</v>
       </c>
       <c r="F6">
-        <v>5.253813842144865</v>
+        <v>3.61129795376678</v>
       </c>
       <c r="G6">
-        <v>5.630601904883406</v>
+        <v>3.111016377872431</v>
       </c>
       <c r="H6">
-        <v>2.811811636501602</v>
+        <v>2.187980339722913</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2391788871673413</v>
+        <v>0.2195636460188126</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1260047691824013</v>
+        <v>0.03957743292282601</v>
       </c>
       <c r="D7">
-        <v>0.06708384474042361</v>
+        <v>0.07708056048697642</v>
       </c>
       <c r="E7">
-        <v>0.05915874784430386</v>
+        <v>0.1128545056389143</v>
       </c>
       <c r="F7">
-        <v>5.531428885159613</v>
+        <v>3.661621265119948</v>
       </c>
       <c r="G7">
-        <v>5.941367822366601</v>
+        <v>3.17111137751283</v>
       </c>
       <c r="H7">
-        <v>2.956028834640676</v>
+        <v>2.212881683554087</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.250857413215968</v>
+        <v>0.2214111313567173</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1581134298586733</v>
+        <v>0.0464846113614783</v>
       </c>
       <c r="D8">
-        <v>0.07832019596165196</v>
+        <v>0.07998718910447167</v>
       </c>
       <c r="E8">
-        <v>0.06686139573027816</v>
+        <v>0.1131863952433925</v>
       </c>
       <c r="F8">
-        <v>6.822691109408822</v>
+        <v>3.890553302341175</v>
       </c>
       <c r="G8">
-        <v>7.38469340324508</v>
+        <v>3.442519322136206</v>
       </c>
       <c r="H8">
-        <v>3.627777613742637</v>
+        <v>2.326789733958549</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3053628618794875</v>
+        <v>0.2299500163076971</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2293674536547741</v>
+        <v>0.06028899607868254</v>
       </c>
       <c r="D9">
-        <v>0.1034801520907465</v>
+        <v>0.08555566712294649</v>
       </c>
       <c r="E9">
-        <v>0.08473683448865899</v>
+        <v>0.1143267567237061</v>
       </c>
       <c r="F9">
-        <v>9.727262050433097</v>
+        <v>4.365297793557744</v>
       </c>
       <c r="G9">
-        <v>10.62303352065277</v>
+        <v>3.998390302803273</v>
       </c>
       <c r="H9">
-        <v>5.143202224819902</v>
+        <v>2.565213172815845</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4287681338056188</v>
+        <v>0.2481315412706664</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.291443318990062</v>
+        <v>0.0706178245743132</v>
       </c>
       <c r="D10">
-        <v>0.1259142828106619</v>
+        <v>0.08957788668904954</v>
       </c>
       <c r="E10">
-        <v>0.1008633599434923</v>
+        <v>0.1154691160534647</v>
       </c>
       <c r="F10">
-        <v>12.29155263617002</v>
+        <v>4.730963310585878</v>
       </c>
       <c r="G10">
-        <v>13.47685283541381</v>
+        <v>4.42248299043041</v>
       </c>
       <c r="H10">
-        <v>6.4849399907269</v>
+        <v>2.750149006206811</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5383310779734956</v>
+        <v>0.2624139554791896</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3236442372920862</v>
+        <v>0.07536367885160189</v>
       </c>
       <c r="D11">
-        <v>0.1378208899985154</v>
+        <v>0.0913952357905643</v>
       </c>
       <c r="E11">
-        <v>0.1093616803441115</v>
+        <v>0.1160563421569378</v>
       </c>
       <c r="F11">
-        <v>13.63241335945565</v>
+        <v>4.901235078545824</v>
       </c>
       <c r="G11">
-        <v>14.96814920049019</v>
+        <v>4.61911193280207</v>
       </c>
       <c r="H11">
-        <v>7.187758628977974</v>
+        <v>2.836535916717537</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5957840215931896</v>
+        <v>0.2691231557129612</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3366843100750856</v>
+        <v>0.07716812685853824</v>
       </c>
       <c r="D12">
-        <v>0.1427048232815054</v>
+        <v>0.09208184401928321</v>
       </c>
       <c r="E12">
-        <v>0.1128229265224583</v>
+        <v>0.1162885415913735</v>
       </c>
       <c r="F12">
-        <v>14.17738376725248</v>
+        <v>4.966298633670078</v>
       </c>
       <c r="G12">
-        <v>15.57415906656638</v>
+        <v>4.694127045197376</v>
       </c>
       <c r="H12">
-        <v>7.473636061494744</v>
+        <v>2.869584196910068</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6191607985588803</v>
+        <v>0.271695155198131</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3338319077881664</v>
+        <v>0.07677917397731449</v>
       </c>
       <c r="D13">
-        <v>0.141633240110302</v>
+        <v>0.0919340378228668</v>
       </c>
       <c r="E13">
-        <v>0.1120649351129472</v>
+        <v>0.1162380942381276</v>
       </c>
       <c r="F13">
-        <v>14.05807988901324</v>
+        <v>4.952259668129614</v>
       </c>
       <c r="G13">
-        <v>15.44149617800815</v>
+        <v>4.677946097155598</v>
       </c>
       <c r="H13">
-        <v>7.411041162410186</v>
+        <v>2.86245156676847</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.61404201583467</v>
+        <v>0.2711398195665708</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3246978804208567</v>
+        <v>0.07551198269690929</v>
       </c>
       <c r="D14">
-        <v>0.1382141136457165</v>
+        <v>0.09145175402433381</v>
       </c>
       <c r="E14">
-        <v>0.1096409616542182</v>
+        <v>0.1160752476702456</v>
       </c>
       <c r="F14">
-        <v>13.67640524524313</v>
+        <v>4.906576046229361</v>
       </c>
       <c r="G14">
-        <v>15.01707010673141</v>
+        <v>4.625272194154547</v>
       </c>
       <c r="H14">
-        <v>7.210830785937162</v>
+        <v>2.839248033856109</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5976705527311879</v>
+        <v>0.2693341218034391</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3192243395082528</v>
+        <v>0.0747367568904167</v>
       </c>
       <c r="D15">
-        <v>0.1361739802209669</v>
+        <v>0.09115614115565052</v>
       </c>
       <c r="E15">
-        <v>0.1081909091334943</v>
+        <v>0.1159767830357517</v>
       </c>
       <c r="F15">
-        <v>13.44795366980674</v>
+        <v>4.878670353067548</v>
       </c>
       <c r="G15">
-        <v>14.76301819382741</v>
+        <v>4.59308100855128</v>
       </c>
       <c r="H15">
-        <v>7.091025495915289</v>
+        <v>2.825079204977328</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5878747563119759</v>
+        <v>0.2682321917641559</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2894387892592647</v>
+        <v>0.07030866489482435</v>
       </c>
       <c r="D16">
-        <v>0.1251798068852708</v>
+        <v>0.08945888632182175</v>
       </c>
       <c r="E16">
-        <v>0.1003369105879877</v>
+        <v>0.1154321086230929</v>
       </c>
       <c r="F16">
-        <v>12.20831627573159</v>
+        <v>4.71991643304068</v>
       </c>
       <c r="G16">
-        <v>13.38426211859252</v>
+        <v>4.409709365075059</v>
       </c>
       <c r="H16">
-        <v>6.441338067377217</v>
+        <v>2.744549769859191</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5347678564073846</v>
+        <v>0.2619798349273026</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2723332479341281</v>
+        <v>0.06760462282073831</v>
       </c>
       <c r="D17">
-        <v>0.1189416208869503</v>
+        <v>0.08841464377898234</v>
       </c>
       <c r="E17">
-        <v>0.09585836725137753</v>
+        <v>0.115115352460144</v>
       </c>
       <c r="F17">
-        <v>11.49916100494016</v>
+        <v>4.623546572525697</v>
       </c>
       <c r="G17">
-        <v>12.59531268967208</v>
+        <v>4.298182346519582</v>
       </c>
       <c r="H17">
-        <v>6.069989737111428</v>
+        <v>2.695733525950004</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5044270733967551</v>
+        <v>0.258199144506392</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2628451060681414</v>
+        <v>0.06605374256325547</v>
       </c>
       <c r="D18">
-        <v>0.1155030110377027</v>
+        <v>0.0878128457814995</v>
       </c>
       <c r="E18">
-        <v>0.09338567537788833</v>
+        <v>0.1149395147331163</v>
       </c>
       <c r="F18">
-        <v>11.10669786271899</v>
+        <v>4.568485704440889</v>
       </c>
       <c r="G18">
-        <v>12.15860438013465</v>
+        <v>4.234382464436408</v>
       </c>
       <c r="H18">
-        <v>5.864578953637647</v>
+        <v>2.667867652809377</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4876496377093673</v>
+        <v>0.2560444970522013</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2596866852805135</v>
+        <v>0.06552938396440311</v>
       </c>
       <c r="D19">
-        <v>0.1143616007145809</v>
+        <v>0.08760887918712257</v>
       </c>
       <c r="E19">
-        <v>0.09256451337394367</v>
+        <v>0.1148810666594109</v>
       </c>
       <c r="F19">
-        <v>10.9761984937756</v>
+        <v>4.549905725112012</v>
       </c>
       <c r="G19">
-        <v>12.01337761535547</v>
+        <v>4.212839919092232</v>
       </c>
       <c r="H19">
-        <v>5.796293503270761</v>
+        <v>2.658468829434071</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4820732258202582</v>
+        <v>0.2553183630229512</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2741163647060603</v>
+        <v>0.06789201234779796</v>
       </c>
       <c r="D20">
-        <v>0.1195895158765836</v>
+        <v>0.08852592561383688</v>
       </c>
       <c r="E20">
-        <v>0.09632401058910744</v>
+        <v>0.1151484134686847</v>
       </c>
       <c r="F20">
-        <v>11.57298881429148</v>
+        <v>4.633767022025381</v>
       </c>
       <c r="G20">
-        <v>12.6774563880715</v>
+        <v>4.310018458435138</v>
       </c>
       <c r="H20">
-        <v>6.108638590314001</v>
+        <v>2.700908087636037</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5075842798819394</v>
+        <v>0.2585995390349467</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3273547204424574</v>
+        <v>0.0758839853724993</v>
       </c>
       <c r="D21">
-        <v>0.1392067343052403</v>
+        <v>0.09159345381031159</v>
       </c>
       <c r="E21">
-        <v>0.1103455010342316</v>
+        <v>0.1161228119448339</v>
       </c>
       <c r="F21">
-        <v>13.78736687498611</v>
+        <v>4.91997838171585</v>
       </c>
       <c r="G21">
-        <v>15.1404628705904</v>
+        <v>4.640728520165851</v>
       </c>
       <c r="H21">
-        <v>7.269029951678249</v>
+        <v>2.846054283815135</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6024294037513584</v>
+        <v>0.2698636404683015</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3673720192872452</v>
+        <v>0.08114997452028661</v>
       </c>
       <c r="D22">
-        <v>0.1543567727342321</v>
+        <v>0.09358913304130567</v>
       </c>
       <c r="E22">
-        <v>0.1210054477897913</v>
+        <v>0.1168169890189468</v>
       </c>
       <c r="F22">
-        <v>15.46431751295103</v>
+        <v>5.110455770377826</v>
       </c>
       <c r="G22">
-        <v>17.00511637317533</v>
+        <v>4.860118637852338</v>
       </c>
       <c r="H22">
-        <v>8.149243658266698</v>
+        <v>2.942876066604299</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6744159457996517</v>
+        <v>0.2774086648392853</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3453897824939247</v>
+        <v>0.07833533198036946</v>
       </c>
       <c r="D23">
-        <v>0.1459869437721864</v>
+        <v>0.09252476986625879</v>
       </c>
       <c r="E23">
-        <v>0.1151391612022543</v>
+        <v>0.1164412069167824</v>
       </c>
       <c r="F23">
-        <v>14.54182930780001</v>
+        <v>5.008474398812893</v>
       </c>
       <c r="G23">
-        <v>15.97940308309876</v>
+        <v>4.742720673453732</v>
       </c>
       <c r="H23">
-        <v>7.664887467027484</v>
+        <v>2.891017476649836</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6348014250056053</v>
+        <v>0.2733646751592573</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2733091577744773</v>
+        <v>0.06776207202621265</v>
       </c>
       <c r="D24">
-        <v>0.119296150606516</v>
+        <v>0.08847561962447514</v>
       </c>
       <c r="E24">
-        <v>0.09611318024861149</v>
+        <v>0.1151334470669205</v>
       </c>
       <c r="F24">
-        <v>11.53956458591728</v>
+        <v>4.629145288575558</v>
       </c>
       <c r="G24">
-        <v>12.64026756031893</v>
+        <v>4.304666361948989</v>
       </c>
       <c r="H24">
-        <v>6.091140689276131</v>
+        <v>2.698568048523214</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5061548670830689</v>
+        <v>0.2584184617972767</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.208822307253925</v>
+        <v>0.05652386341895976</v>
       </c>
       <c r="D25">
-        <v>0.09617537302204937</v>
+        <v>0.08406217762201607</v>
       </c>
       <c r="E25">
-        <v>0.07949750603876993</v>
+        <v>0.1139652353035956</v>
       </c>
       <c r="F25">
-        <v>8.885064797888447</v>
+        <v>4.2339883756853</v>
       </c>
       <c r="G25">
-        <v>9.684900338759803</v>
+        <v>3.845351347943108</v>
       </c>
       <c r="H25">
-        <v>4.703267378438909</v>
+        <v>2.499042109264337</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3928955317845038</v>
+        <v>0.243054214178386</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_147/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_147/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04837263193803665</v>
+        <v>0.1672524153737953</v>
       </c>
       <c r="D2">
-        <v>0.08076544123147755</v>
+        <v>0.08152441831862234</v>
       </c>
       <c r="E2">
-        <v>0.1133092308110797</v>
+        <v>0.06910173624377691</v>
       </c>
       <c r="F2">
-        <v>3.954288008995718</v>
+        <v>7.192480047365081</v>
       </c>
       <c r="G2">
-        <v>3.517610816729587</v>
+        <v>7.797507936233956</v>
       </c>
       <c r="H2">
-        <v>2.358650277960692</v>
+        <v>3.820403506123455</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2323591097577946</v>
+        <v>0.3210196426188929</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04291586150974069</v>
+        <v>0.1412772116694896</v>
       </c>
       <c r="D3">
-        <v>0.07849806491754663</v>
+        <v>0.07242619575510645</v>
       </c>
       <c r="E3">
-        <v>0.1129899566129957</v>
+        <v>0.06278670329011149</v>
       </c>
       <c r="F3">
-        <v>3.771370646392</v>
+        <v>6.143968498582211</v>
       </c>
       <c r="G3">
-        <v>3.301587764275325</v>
+        <v>6.626436083855936</v>
       </c>
       <c r="H3">
-        <v>2.26737350247339</v>
+        <v>3.274505322140783</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2254799030836381</v>
+        <v>0.2766782509887662</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03959561195027561</v>
+        <v>0.1260867643865851</v>
       </c>
       <c r="D4">
-        <v>0.0770883509388085</v>
+        <v>0.06711252944188573</v>
       </c>
       <c r="E4">
-        <v>0.1128551022633211</v>
+        <v>0.059178030334742</v>
       </c>
       <c r="F4">
-        <v>3.66221381334239</v>
+        <v>5.534708767582629</v>
       </c>
       <c r="G4">
-        <v>3.171817906806723</v>
+        <v>5.945038247276273</v>
       </c>
       <c r="H4">
-        <v>2.213175233925881</v>
+        <v>2.957733169444396</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2214329583296575</v>
+        <v>0.2509954838820647</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03824977303878541</v>
+        <v>0.1200495475373486</v>
       </c>
       <c r="D5">
-        <v>0.07650930721145244</v>
+        <v>0.06500014326886117</v>
       </c>
       <c r="E5">
-        <v>0.1128154488327269</v>
+        <v>0.05776442283877259</v>
       </c>
       <c r="F5">
-        <v>3.618508684877384</v>
+        <v>5.293484420405719</v>
       </c>
       <c r="G5">
-        <v>3.119638749499074</v>
+        <v>5.675021476819779</v>
       </c>
       <c r="H5">
-        <v>2.191544775453224</v>
+        <v>2.832414920184931</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2198275908243659</v>
+        <v>0.2408467280613706</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0380267198869717</v>
+        <v>0.1190553522369271</v>
       </c>
       <c r="D6">
-        <v>0.07641287644713657</v>
+        <v>0.06465218936946115</v>
       </c>
       <c r="E6">
-        <v>0.1128097861513808</v>
+        <v>0.05753286273487745</v>
       </c>
       <c r="F6">
-        <v>3.61129795376678</v>
+        <v>5.253813842144893</v>
       </c>
       <c r="G6">
-        <v>3.111016377872431</v>
+        <v>5.63060190488352</v>
       </c>
       <c r="H6">
-        <v>2.187980339722913</v>
+        <v>2.811811636501545</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2195636460188126</v>
+        <v>0.2391788871672844</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03957743292282601</v>
+        <v>0.1260047691824013</v>
       </c>
       <c r="D7">
-        <v>0.07708056048697642</v>
+        <v>0.06708384474048756</v>
       </c>
       <c r="E7">
-        <v>0.1128545056389143</v>
+        <v>0.05915874784430031</v>
       </c>
       <c r="F7">
-        <v>3.661621265119948</v>
+        <v>5.531428885159613</v>
       </c>
       <c r="G7">
-        <v>3.17111137751283</v>
+        <v>5.941367822366601</v>
       </c>
       <c r="H7">
-        <v>2.212881683554087</v>
+        <v>2.956028834640733</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2214111313567173</v>
+        <v>0.2508574132158401</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0464846113614783</v>
+        <v>0.1581134298588012</v>
       </c>
       <c r="D8">
-        <v>0.07998718910447167</v>
+        <v>0.07832019596165907</v>
       </c>
       <c r="E8">
-        <v>0.1131863952433925</v>
+        <v>0.06686139573023553</v>
       </c>
       <c r="F8">
-        <v>3.890553302341175</v>
+        <v>6.822691109408851</v>
       </c>
       <c r="G8">
-        <v>3.442519322136206</v>
+        <v>7.384693403245024</v>
       </c>
       <c r="H8">
-        <v>2.326789733958549</v>
+        <v>3.627777613742637</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2299500163076971</v>
+        <v>0.3053628618795869</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06028899607868254</v>
+        <v>0.2293674536552146</v>
       </c>
       <c r="D9">
-        <v>0.08555566712294649</v>
+        <v>0.1034801520903557</v>
       </c>
       <c r="E9">
-        <v>0.1143267567237061</v>
+        <v>0.08473683448866254</v>
       </c>
       <c r="F9">
-        <v>4.365297793557744</v>
+        <v>9.72726205043304</v>
       </c>
       <c r="G9">
-        <v>3.998390302803273</v>
+        <v>10.62303352065277</v>
       </c>
       <c r="H9">
-        <v>2.565213172815845</v>
+        <v>5.143202224819959</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2481315412706664</v>
+        <v>0.4287681338055336</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0706178245743132</v>
+        <v>0.2914433189908863</v>
       </c>
       <c r="D10">
-        <v>0.08957788668904954</v>
+        <v>0.1259142828106121</v>
       </c>
       <c r="E10">
-        <v>0.1154691160534647</v>
+        <v>0.1008633599435278</v>
       </c>
       <c r="F10">
-        <v>4.730963310585878</v>
+        <v>12.29155263617014</v>
       </c>
       <c r="G10">
-        <v>4.42248299043041</v>
+        <v>13.47685283541409</v>
       </c>
       <c r="H10">
-        <v>2.750149006206811</v>
+        <v>6.4849399907269</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2624139554791896</v>
+        <v>0.5383310779733392</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07536367885160189</v>
+        <v>0.3236442372921289</v>
       </c>
       <c r="D11">
-        <v>0.0913952357905643</v>
+        <v>0.137820889998352</v>
       </c>
       <c r="E11">
-        <v>0.1160563421569378</v>
+        <v>0.1093616803440653</v>
       </c>
       <c r="F11">
-        <v>4.901235078545824</v>
+        <v>13.63241335945543</v>
       </c>
       <c r="G11">
-        <v>4.61911193280207</v>
+        <v>14.96814920048996</v>
       </c>
       <c r="H11">
-        <v>2.836535916717537</v>
+        <v>7.187758628977974</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2691231557129612</v>
+        <v>0.5957840215933459</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07716812685853824</v>
+        <v>0.3366843100755688</v>
       </c>
       <c r="D12">
-        <v>0.09208184401928321</v>
+        <v>0.1427048232814982</v>
       </c>
       <c r="E12">
-        <v>0.1162885415913735</v>
+        <v>0.1128229265224689</v>
       </c>
       <c r="F12">
-        <v>4.966298633670078</v>
+        <v>14.17738376725248</v>
       </c>
       <c r="G12">
-        <v>4.694127045197376</v>
+        <v>15.57415906656632</v>
       </c>
       <c r="H12">
-        <v>2.869584196910068</v>
+        <v>7.473636061494801</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.271695155198131</v>
+        <v>0.6191607985587666</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07677917397731449</v>
+        <v>0.3338319077877117</v>
       </c>
       <c r="D13">
-        <v>0.0919340378228668</v>
+        <v>0.1416332401101457</v>
       </c>
       <c r="E13">
-        <v>0.1162380942381276</v>
+        <v>0.1120649351129899</v>
       </c>
       <c r="F13">
-        <v>4.952259668129614</v>
+        <v>14.05807988901284</v>
       </c>
       <c r="G13">
-        <v>4.677946097155598</v>
+        <v>15.4414961780077</v>
       </c>
       <c r="H13">
-        <v>2.86245156676847</v>
+        <v>7.411041162410015</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2711398195665708</v>
+        <v>0.6140420158344995</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07551198269690929</v>
+        <v>0.3246978804213256</v>
       </c>
       <c r="D14">
-        <v>0.09145175402433381</v>
+        <v>0.1382141136456809</v>
       </c>
       <c r="E14">
-        <v>0.1160752476702456</v>
+        <v>0.1096409616541862</v>
       </c>
       <c r="F14">
-        <v>4.906576046229361</v>
+        <v>13.67640524524313</v>
       </c>
       <c r="G14">
-        <v>4.625272194154547</v>
+        <v>15.01707010673113</v>
       </c>
       <c r="H14">
-        <v>2.839248033856109</v>
+        <v>7.210830785937333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2693341218034391</v>
+        <v>0.5976705527310884</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0747367568904167</v>
+        <v>0.319224339508196</v>
       </c>
       <c r="D15">
-        <v>0.09115614115565052</v>
+        <v>0.1361739802209385</v>
       </c>
       <c r="E15">
-        <v>0.1159767830357517</v>
+        <v>0.1081909091335902</v>
       </c>
       <c r="F15">
-        <v>4.878670353067548</v>
+        <v>13.44795366980674</v>
       </c>
       <c r="G15">
-        <v>4.59308100855128</v>
+        <v>14.76301819382741</v>
       </c>
       <c r="H15">
-        <v>2.825079204977328</v>
+        <v>7.091025495915346</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2682321917641559</v>
+        <v>0.5878747563120328</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07030866489482435</v>
+        <v>0.2894387892596626</v>
       </c>
       <c r="D16">
-        <v>0.08945888632182175</v>
+        <v>0.1251798068852636</v>
       </c>
       <c r="E16">
-        <v>0.1154321086230929</v>
+        <v>0.1003369105880338</v>
       </c>
       <c r="F16">
-        <v>4.71991643304068</v>
+        <v>12.20831627573165</v>
       </c>
       <c r="G16">
-        <v>4.409709365075059</v>
+        <v>13.38426211859252</v>
       </c>
       <c r="H16">
-        <v>2.744549769859191</v>
+        <v>6.441338067377274</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2619798349273026</v>
+        <v>0.5347678564072282</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06760462282073831</v>
+        <v>0.2723332479341138</v>
       </c>
       <c r="D17">
-        <v>0.08841464377898234</v>
+        <v>0.1189416208869289</v>
       </c>
       <c r="E17">
-        <v>0.115115352460144</v>
+        <v>0.09585836725138464</v>
       </c>
       <c r="F17">
-        <v>4.623546572525697</v>
+        <v>11.49916100494016</v>
       </c>
       <c r="G17">
-        <v>4.298182346519582</v>
+        <v>12.59531268967203</v>
       </c>
       <c r="H17">
-        <v>2.695733525950004</v>
+        <v>6.069989737111314</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.258199144506392</v>
+        <v>0.504427073396613</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06605374256325547</v>
+        <v>0.2628451060681272</v>
       </c>
       <c r="D18">
-        <v>0.0878128457814995</v>
+        <v>0.1155030110376742</v>
       </c>
       <c r="E18">
-        <v>0.1149395147331163</v>
+        <v>0.09338567537792031</v>
       </c>
       <c r="F18">
-        <v>4.568485704440889</v>
+        <v>11.10669786271905</v>
       </c>
       <c r="G18">
-        <v>4.234382464436408</v>
+        <v>12.15860438013453</v>
       </c>
       <c r="H18">
-        <v>2.667867652809377</v>
+        <v>5.864578953637704</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2560444970522013</v>
+        <v>0.4876496377095094</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06552938396440311</v>
+        <v>0.259686685280542</v>
       </c>
       <c r="D19">
-        <v>0.08760887918712257</v>
+        <v>0.1143616007145738</v>
       </c>
       <c r="E19">
-        <v>0.1148810666594109</v>
+        <v>0.09256451337400762</v>
       </c>
       <c r="F19">
-        <v>4.549905725112012</v>
+        <v>10.97619849377554</v>
       </c>
       <c r="G19">
-        <v>4.212839919092232</v>
+        <v>12.01337761535564</v>
       </c>
       <c r="H19">
-        <v>2.658468829434071</v>
+        <v>5.796293503270704</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2553183630229512</v>
+        <v>0.4820732258200593</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06789201234779796</v>
+        <v>0.2741163647052076</v>
       </c>
       <c r="D20">
-        <v>0.08852592561383688</v>
+        <v>0.1195895158765552</v>
       </c>
       <c r="E20">
-        <v>0.1151484134686847</v>
+        <v>0.09632401058906837</v>
       </c>
       <c r="F20">
-        <v>4.633767022025381</v>
+        <v>11.5729888142917</v>
       </c>
       <c r="G20">
-        <v>4.310018458435138</v>
+        <v>12.67745638807168</v>
       </c>
       <c r="H20">
-        <v>2.700908087636037</v>
+        <v>6.108638590314001</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2585995390349467</v>
+        <v>0.5075842798819679</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0758839853724993</v>
+        <v>0.3273547204432816</v>
       </c>
       <c r="D21">
-        <v>0.09159345381031159</v>
+        <v>0.1392067343051835</v>
       </c>
       <c r="E21">
-        <v>0.1161228119448339</v>
+        <v>0.1103455010342138</v>
       </c>
       <c r="F21">
-        <v>4.91997838171585</v>
+        <v>13.78736687498639</v>
       </c>
       <c r="G21">
-        <v>4.640728520165851</v>
+        <v>15.14046287059045</v>
       </c>
       <c r="H21">
-        <v>2.846054283815135</v>
+        <v>7.269029951678363</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2698636404683015</v>
+        <v>0.6024294037514863</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08114997452028661</v>
+        <v>0.3673720192863215</v>
       </c>
       <c r="D22">
-        <v>0.09358913304130567</v>
+        <v>0.1543567727340758</v>
       </c>
       <c r="E22">
-        <v>0.1168169890189468</v>
+        <v>0.1210054477898126</v>
       </c>
       <c r="F22">
-        <v>5.110455770377826</v>
+        <v>15.46431751295086</v>
       </c>
       <c r="G22">
-        <v>4.860118637852338</v>
+        <v>17.00511637317516</v>
       </c>
       <c r="H22">
-        <v>2.942876066604299</v>
+        <v>8.149243658266585</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2774086648392853</v>
+        <v>0.6744159457998649</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07833533198036946</v>
+        <v>0.3453897824938821</v>
       </c>
       <c r="D23">
-        <v>0.09252476986625879</v>
+        <v>0.1459869437721508</v>
       </c>
       <c r="E23">
-        <v>0.1164412069167824</v>
+        <v>0.1151391612023289</v>
       </c>
       <c r="F23">
-        <v>5.008474398812893</v>
+        <v>14.54182930780024</v>
       </c>
       <c r="G23">
-        <v>4.742720673453732</v>
+        <v>15.97940308309887</v>
       </c>
       <c r="H23">
-        <v>2.891017476649836</v>
+        <v>7.664887467027711</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2733646751592573</v>
+        <v>0.6348014250056337</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06776207202621265</v>
+        <v>0.2733091577748468</v>
       </c>
       <c r="D24">
-        <v>0.08847561962447514</v>
+        <v>0.1192961506069139</v>
       </c>
       <c r="E24">
-        <v>0.1151334470669205</v>
+        <v>0.09611318024862925</v>
       </c>
       <c r="F24">
-        <v>4.629145288575558</v>
+        <v>11.53956458591739</v>
       </c>
       <c r="G24">
-        <v>4.304666361948989</v>
+        <v>12.64026756031905</v>
       </c>
       <c r="H24">
-        <v>2.698568048523214</v>
+        <v>6.091140689276187</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2584184617972767</v>
+        <v>0.5061548670828984</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05652386341895976</v>
+        <v>0.208822307253925</v>
       </c>
       <c r="D25">
-        <v>0.08406217762201607</v>
+        <v>0.09617537302219858</v>
       </c>
       <c r="E25">
-        <v>0.1139652353035956</v>
+        <v>0.07949750603876282</v>
       </c>
       <c r="F25">
-        <v>4.2339883756853</v>
+        <v>8.885064797888532</v>
       </c>
       <c r="G25">
-        <v>3.845351347943108</v>
+        <v>9.684900338759803</v>
       </c>
       <c r="H25">
-        <v>2.499042109264337</v>
+        <v>4.703267378438966</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.243054214178386</v>
+        <v>0.3928955317842195</v>
       </c>
       <c r="K25">
         <v>0</v>
